--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H2">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I2">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J2">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>78.21864173893233</v>
+        <v>199.8917639175543</v>
       </c>
       <c r="R2">
-        <v>703.9677756503911</v>
+        <v>1799.025875257989</v>
       </c>
       <c r="S2">
-        <v>0.02142117898757857</v>
+        <v>0.1076192633952116</v>
       </c>
       <c r="T2">
-        <v>0.02142117898757857</v>
+        <v>0.1076192633952116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H3">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I3">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J3">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>28.03159909348867</v>
+        <v>75.64835765835133</v>
       </c>
       <c r="R3">
-        <v>252.284391841398</v>
+        <v>680.8352189251621</v>
       </c>
       <c r="S3">
-        <v>0.007676813201306075</v>
+        <v>0.0407281439149596</v>
       </c>
       <c r="T3">
-        <v>0.007676813201306073</v>
+        <v>0.04072814391495961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H4">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I4">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J4">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>40.48811092315033</v>
+        <v>91.47646844754678</v>
       </c>
       <c r="R4">
-        <v>364.392998308353</v>
+        <v>823.2882160279211</v>
       </c>
       <c r="S4">
-        <v>0.01108818884695679</v>
+        <v>0.04924980379071911</v>
       </c>
       <c r="T4">
-        <v>0.01108818884695679</v>
+        <v>0.04924980379071912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H5">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I5">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J5">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>12.86095434278822</v>
+        <v>29.57994371452788</v>
       </c>
       <c r="R5">
-        <v>115.748589085094</v>
+        <v>266.219493430751</v>
       </c>
       <c r="S5">
-        <v>0.003522137418947502</v>
+        <v>0.01592547732553051</v>
       </c>
       <c r="T5">
-        <v>0.003522137418947502</v>
+        <v>0.01592547732553051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H6">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I6">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J6">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>15.74438644693134</v>
+        <v>39.38856558091778</v>
       </c>
       <c r="R6">
-        <v>141.699478022382</v>
+        <v>354.49709022826</v>
       </c>
       <c r="S6">
-        <v>0.004311802309927531</v>
+        <v>0.02120631851425717</v>
       </c>
       <c r="T6">
-        <v>0.00431180230992753</v>
+        <v>0.02120631851425717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8029023333333334</v>
+        <v>2.166777666666666</v>
       </c>
       <c r="H7">
-        <v>2.408707</v>
+        <v>6.500332999999999</v>
       </c>
       <c r="I7">
-        <v>0.06206726394886004</v>
+        <v>0.3769884032128669</v>
       </c>
       <c r="J7">
-        <v>0.06206726394886004</v>
+        <v>0.376988403212867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>51.29262310039701</v>
+        <v>264.2322643509142</v>
       </c>
       <c r="R7">
-        <v>461.633607903573</v>
+        <v>2378.090379158228</v>
       </c>
       <c r="S7">
-        <v>0.01404714318414358</v>
+        <v>0.142259396272189</v>
       </c>
       <c r="T7">
-        <v>0.01404714318414357</v>
+        <v>0.142259396272189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.479788</v>
       </c>
       <c r="I8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J8">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>210.4200370224493</v>
+        <v>199.2599845472227</v>
       </c>
       <c r="R8">
-        <v>1893.780333202044</v>
+        <v>1793.339860925004</v>
       </c>
       <c r="S8">
-        <v>0.05762622790964771</v>
+        <v>0.1072791211645821</v>
       </c>
       <c r="T8">
-        <v>0.05762622790964769</v>
+        <v>0.1072791211645821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.479788</v>
       </c>
       <c r="I9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J9">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>75.40926290611466</v>
@@ -1013,10 +1013,10 @@
         <v>678.6833661550321</v>
       </c>
       <c r="S9">
-        <v>0.02065179453543527</v>
+        <v>0.04059941824556192</v>
       </c>
       <c r="T9">
-        <v>0.02065179453543526</v>
+        <v>0.04059941824556193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.479788</v>
       </c>
       <c r="I10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J10">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>108.9191733583613</v>
+        <v>91.18734725263957</v>
       </c>
       <c r="R10">
-        <v>980.2725602252519</v>
+        <v>820.6861252737561</v>
       </c>
       <c r="S10">
-        <v>0.02982891361724131</v>
+        <v>0.04909414450082115</v>
       </c>
       <c r="T10">
-        <v>0.02982891361724129</v>
+        <v>0.04909414450082115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.479788</v>
       </c>
       <c r="I11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J11">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>34.59792229563289</v>
+        <v>29.48645312818178</v>
       </c>
       <c r="R11">
-        <v>311.381300660696</v>
+        <v>265.378078153636</v>
       </c>
       <c r="S11">
-        <v>0.009475085089903836</v>
+        <v>0.01587514314547343</v>
       </c>
       <c r="T11">
-        <v>0.009475085089903832</v>
+        <v>0.01587514314547343</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.479788</v>
       </c>
       <c r="I12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J12">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>42.35479299316534</v>
+        <v>39.26407379259556</v>
       </c>
       <c r="R12">
-        <v>381.1931369384881</v>
+        <v>353.37666413336</v>
       </c>
       <c r="S12">
-        <v>0.0115994036909598</v>
+        <v>0.02113929366893379</v>
       </c>
       <c r="T12">
-        <v>0.01159940369095979</v>
+        <v>0.0211392936689338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.479788</v>
       </c>
       <c r="I13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097267</v>
       </c>
       <c r="J13">
-        <v>0.1669703754456876</v>
+        <v>0.3757968909097268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>137.984953609748</v>
+        <v>263.3971299245565</v>
       </c>
       <c r="R13">
-        <v>1241.864582487732</v>
+        <v>2370.574169321008</v>
       </c>
       <c r="S13">
-        <v>0.03778895060249975</v>
+        <v>0.1418097701843544</v>
       </c>
       <c r="T13">
-        <v>0.03778895060249973</v>
+        <v>0.1418097701843544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H14">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J14">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>971.5850972275217</v>
+        <v>131.0814423017974</v>
       </c>
       <c r="R14">
-        <v>8744.265875047695</v>
+        <v>1179.732980716176</v>
       </c>
       <c r="S14">
-        <v>0.2660810493084223</v>
+        <v>0.07057263385358771</v>
       </c>
       <c r="T14">
-        <v>0.2660810493084222</v>
+        <v>0.0705726338535877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H15">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J15">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>348.1917267445234</v>
+        <v>49.60732566104534</v>
       </c>
       <c r="R15">
-        <v>3133.725540700711</v>
+        <v>446.4659309494081</v>
       </c>
       <c r="S15">
-        <v>0.09535677345923564</v>
+        <v>0.02670797306511354</v>
       </c>
       <c r="T15">
-        <v>0.09535677345923561</v>
+        <v>0.02670797306511355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H16">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J16">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>502.9190524571317</v>
+        <v>59.98680078547379</v>
       </c>
       <c r="R16">
-        <v>4526.271472114185</v>
+        <v>539.8812070692641</v>
       </c>
       <c r="S16">
-        <v>0.1377308375528266</v>
+        <v>0.03229615461610848</v>
       </c>
       <c r="T16">
-        <v>0.1377308375528266</v>
+        <v>0.03229615461610848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H17">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J17">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>159.7510682591811</v>
+        <v>19.39740592266489</v>
       </c>
       <c r="R17">
-        <v>1437.75961433263</v>
+        <v>174.576653303984</v>
       </c>
       <c r="S17">
-        <v>0.04374988047041881</v>
+        <v>0.01044332440848397</v>
       </c>
       <c r="T17">
-        <v>0.0437498804704188</v>
+        <v>0.01044332440848397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H18">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J18">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>195.5673340363767</v>
+        <v>25.82952836753778</v>
       </c>
       <c r="R18">
-        <v>1760.10600632739</v>
+        <v>232.46575530784</v>
       </c>
       <c r="S18">
-        <v>0.05355862456036015</v>
+        <v>0.01390629990091364</v>
       </c>
       <c r="T18">
-        <v>0.05355862456036013</v>
+        <v>0.01390629990091364</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.973171666666667</v>
+        <v>1.420890666666667</v>
       </c>
       <c r="H19">
-        <v>29.919515</v>
+        <v>4.262672</v>
       </c>
       <c r="I19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="J19">
-        <v>0.7709623606054523</v>
+        <v>0.2472147058774063</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>637.126228404565</v>
+        <v>173.2735037951502</v>
       </c>
       <c r="R19">
-        <v>5734.136055641085</v>
+        <v>1559.461534156352</v>
       </c>
       <c r="S19">
-        <v>0.1744851952541889</v>
+        <v>0.09328832003319898</v>
       </c>
       <c r="T19">
-        <v>0.1744851952541888</v>
+        <v>0.09328832003319899</v>
       </c>
     </row>
   </sheetData>
